--- a/example/data/01-引用.xlsx
+++ b/example/data/01-引用.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ECConverter\example\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Private\ECConverter\example\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1BA93E-3F0F-4EFB-ABC2-90E6EFE95E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4848BE6-4171-402A-B8AC-2099153CD7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15555" xr2:uid="{CAB638DB-D63D-4CC1-9777-A39FFE1612C2}"/>
+    <workbookView xWindow="28680" yWindow="5070" windowWidth="29040" windowHeight="15990" xr2:uid="{CAB638DB-D63D-4CC1-9777-A39FFE1612C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -473,10 +473,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -495,10 +495,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -506,10 +506,10 @@
         <v>1000</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -517,17 +517,17 @@
         <v>1001</v>
       </c>
       <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>1002</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
